--- a/resources/doc/表结构设计.xlsx
+++ b/resources/doc/表结构设计.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>字段</t>
     <rPh sb="0" eb="1">
@@ -66,10 +66,6 @@
   </si>
   <si>
     <t>PK_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BANK_ACCOUNT_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -449,6 +445,31 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>mi ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANK_ACCOUNT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANK_ACCOUNT_LOGINACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录名称</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ming c</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -839,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:G27"/>
+  <dimension ref="D2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -879,70 +900,70 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -951,41 +972,47 @@
         <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.2">
@@ -1036,16 +1063,16 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1056,9 +1083,15 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D25:G27"/>
+    <mergeCell ref="D26:G28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1084,7 +1117,7 @@
   <sheetData>
     <row r="4" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1106,113 +1139,113 @@
     </row>
     <row r="6" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="H14" s="3"/>
     </row>

--- a/resources/doc/表结构设计.xlsx
+++ b/resources/doc/表结构设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="银行账户" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>字段</t>
     <rPh sb="0" eb="1">
@@ -470,6 +470,16 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ming c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未使用</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shi yong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -565,7 +575,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -578,6 +588,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -862,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="B1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -944,16 +957,18 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
@@ -1103,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="180" workbookViewId="0">
-      <selection activeCell="D11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
